--- a/Worksheet_Processing/Workbook.xlsx
+++ b/Worksheet_Processing/Workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -531,13 +531,13 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,13 +7093,13 @@
   </sheetPr>
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,13 +10332,13 @@
   </sheetPr>
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10378,7 +10378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="53" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10506,22 +10506,20 @@
         <v>9</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="17" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>50</v>
       </c>
@@ -10594,18 +10592,22 @@
       <c r="AA4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>50</v>
+      <c r="C5" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>50</v>
@@ -10679,19 +10681,21 @@
       <c r="AA5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>50</v>
       </c>
@@ -10764,8 +10768,12 @@
       <c r="AA6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+      <c r="AB6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -11093,7 +11101,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12392,7 +12400,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
